--- a/Excel/Month to Term.xlsx
+++ b/Excel/Month to Term.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewkudija/Documents/GitHub/General-Examples/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3057E5EF-25D6-4F42-ACF2-B9136667FDF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205694A3-0275-F149-B818-5B6F492000A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38980" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{DF8B6F15-308F-C649-9DFC-4A0D4230CACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Month</t>
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>Renewal Month</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,621 +421,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79AF29A-1748-D64B-8004-605146F8C2B3}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="b">
+        <f>MOD(A2,6)=1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f ca="1">A2+MOD(1,6)</f>
+        <f>A2+MOD(1,6)</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f ca="1">IF(MOD(A2,6)=0,B2+1,B2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <f>IF(MOD(A2,6)=0,B2+1,B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C61" si="0">MOD(A3,6)=1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A61" ca="1" si="0">A3+MOD(1,6)</f>
+        <f t="shared" ref="A4:A61" si="1">A3+MOD(1,6)</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B61" ca="1" si="1">IF(MOD(A3,6)=0,B3+1,B3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B4:B61" si="2">IF(MOD(A3,6)=0,B3+1,B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="C61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B61">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1030,6 +1287,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C61">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>